--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-patient.xlsx
@@ -842,13 +842,13 @@
     <t>Patient.telecom.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point 【詳細参照】</t>
+    <t>home | work | temp | old | mobile - 連絡先の用途等 【詳細参照】</t>
   </si>
   <si>
     <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
-    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  
+    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。   一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。
 　- home : 自宅
 　- work : 職場
 　- temp : 一時的
@@ -1302,7 +1302,7 @@
     <t>住所が使用されていた/されている期間。 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  期間は、時間間隔（経過時間の測定値）には使用されない。</t>
   </si>
   <si>
-    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+    <t>アドレスを履歴上の文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>Address.period</t>
